--- a/settings/data/BossProcess.xlsx
+++ b/settings/data/BossProcess.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0CEC8A-DABC-4137-BF8C-3126BB38DE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BBAD6E-BF0A-4F0D-A0C1-1A9EEDB4EE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1665" yWindow="5685" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="keine" sheetId="1" r:id="rId1"/>
@@ -554,7 +554,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -735,7 +735,7 @@
         <v>100</v>
       </c>
       <c r="I4" s="2">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="J4" s="2" t="b">
         <v>1</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="J5" s="2" t="b">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="J6" s="2" t="b">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="J7" s="2" t="b">
         <v>0</v>

--- a/settings/data/BossProcess.xlsx
+++ b/settings/data/BossProcess.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BBAD6E-BF0A-4F0D-A0C1-1A9EEDB4EE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24750" windowHeight="11630"/>
   </bookViews>
   <sheets>
     <sheet name="keine" sheetId="1" r:id="rId1"/>
@@ -158,8 +152,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,13 +175,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -189,28 +182,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -233,13 +543,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -249,41 +801,76 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="TID"/>
     </sheetNames>
@@ -544,37 +1131,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="17.75" style="2" customWidth="1"/>
-    <col min="2" max="3" width="12.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="18.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="27.125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="18.875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7.75" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.25" style="2" customWidth="1"/>
-    <col min="15" max="15" width="25.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.7545454545455" style="2" customWidth="1"/>
+    <col min="2" max="3" width="12.6272727272727" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.2545454545455" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.2545454545455" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.6272727272727" style="2" customWidth="1"/>
+    <col min="7" max="8" width="18.8727272727273" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.75454545454545" style="2" customWidth="1"/>
+    <col min="10" max="10" width="27.1272727272727" style="2" customWidth="1"/>
+    <col min="11" max="12" width="18.8727272727273" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7.75454545454545" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.2545454545455" style="2" customWidth="1"/>
+    <col min="15" max="15" width="25.1272727272727" style="2" customWidth="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,7 +1184,7 @@
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -621,54 +1209,54 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="1" customFormat="1" ht="42" spans="1:15">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -690,13 +1278,13 @@
       <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -711,11 +1299,11 @@
       <c r="N3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
@@ -735,7 +1323,7 @@
         <v>100</v>
       </c>
       <c r="I4" s="2">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="J4" s="2" t="b">
         <v>1</v>
@@ -750,7 +1338,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
@@ -774,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="J5" s="2" t="b">
         <v>0</v>
@@ -795,7 +1383,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
@@ -815,13 +1403,13 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="J6" s="2" t="b">
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="L6" s="2">
         <v>50</v>
@@ -830,7 +1418,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
@@ -854,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="J7" s="2" t="b">
         <v>0</v>
@@ -876,8 +1464,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/BossProcess.xlsx
+++ b/settings/data/BossProcess.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="11630"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="keine" sheetId="1" r:id="rId1"/>
@@ -879,6 +879,11 @@
         <row r="12">
           <cell r="A12" t="str">
             <v>esc_keine_1</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>esc_keine_2</v>
           </cell>
         </row>
       </sheetData>
@@ -1142,7 +1147,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
@@ -1323,7 +1328,7 @@
         <v>100</v>
       </c>
       <c r="I4" s="2">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="J4" s="2" t="b">
         <v>1</v>
@@ -1362,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="J5" s="2" t="b">
         <v>0</v>
@@ -1403,13 +1408,13 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="J6" s="2" t="b">
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L6" s="2">
         <v>50</v>
@@ -1432,8 +1437,8 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="str">
-        <f>[1]TID!$A$12</f>
-        <v>esc_keine_1</v>
+        <f>[1]TID!$A$13</f>
+        <v>esc_keine_2</v>
       </c>
       <c r="G7" s="2" t="b">
         <v>0</v>
@@ -1442,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="J7" s="2" t="b">
         <v>0</v>

--- a/settings/data/BossProcess.xlsx
+++ b/settings/data/BossProcess.xlsx
@@ -65,15 +65,28 @@
     <t>是否为时符</t>
   </si>
   <si>
-    <t>速度</t>
-  </si>
-  <si>
     <t>血量</t>
   </si>
   <si>
     <t>BOSS是否随机运动</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">速度
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BOSS随机运动的速度</t>
+    </r>
+  </si>
+  <si>
     <t>体术半径</t>
   </si>
   <si>
@@ -110,13 +123,13 @@
     <t>is_survial_card</t>
   </si>
   <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
     <t>speed</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>movement</t>
   </si>
   <si>
     <t>physical_radius</t>
@@ -159,7 +172,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +336,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1144,10 +1164,10 @@
   <sheetPr/>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
@@ -1157,10 +1177,10 @@
     <col min="4" max="4" width="15.2545454545455" style="2" customWidth="1"/>
     <col min="5" max="5" width="17.2545454545455" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.6272727272727" style="2" customWidth="1"/>
-    <col min="7" max="8" width="18.8727272727273" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.75454545454545" style="2" customWidth="1"/>
-    <col min="10" max="10" width="27.1272727272727" style="2" customWidth="1"/>
-    <col min="11" max="12" width="18.8727272727273" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.8727272727273" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.75454545454545" style="2" customWidth="1"/>
+    <col min="9" max="9" width="27.1272727272727" style="2" customWidth="1"/>
+    <col min="10" max="12" width="18.8727272727273" style="2" customWidth="1"/>
     <col min="13" max="13" width="7.75454545454545" style="2" customWidth="1"/>
     <col min="14" max="14" width="17.2545454545455" style="2" customWidth="1"/>
     <col min="15" max="15" width="25.1272727272727" style="2" customWidth="1"/>
@@ -1193,10 +1213,10 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>3</v>
@@ -1236,13 +1256,13 @@
       <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K2" s="3" t="s">
@@ -1325,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
+        <v>12000</v>
+      </c>
+      <c r="I4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
         <v>100</v>
-      </c>
-      <c r="I4" s="2">
-        <v>12000</v>
-      </c>
-      <c r="J4" s="2" t="b">
-        <v>1</v>
       </c>
       <c r="K4" s="2">
         <v>50</v>
@@ -1364,12 +1384,12 @@
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
         <v>12000</v>
       </c>
-      <c r="J5" s="2" t="b">
+      <c r="I5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
         <v>0</v>
       </c>
       <c r="K5" s="2">
@@ -1405,12 +1425,12 @@
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
         <v>12000</v>
       </c>
-      <c r="J6" s="2" t="b">
+      <c r="I6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
         <v>0</v>
       </c>
       <c r="K6" s="2">
@@ -1444,12 +1464,12 @@
         <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
         <v>12000</v>
       </c>
-      <c r="J7" s="2" t="b">
+      <c r="I7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
         <v>0</v>
       </c>
       <c r="K7" s="2">

--- a/settings/data/BossProcess.xlsx
+++ b/settings/data/BossProcess.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="24750" windowHeight="11630"/>
   </bookViews>
   <sheets>
     <sheet name="keine" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>string</t>
   </si>
@@ -102,6 +102,52 @@
     <t>奖励分减少率</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">残机数
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进入该阶段后，显示BOSS还剩余几个残机。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">血条
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">该阶段BOSS的血条是怎样的。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nons.非符：更新一条新的血条，其中3/4是非符血量、1/4是符卡血量。该阶段使用非符部分的血量。下一阶段必定是符卡，使用符卡部分的血量。
+spell_quarter.符卡（部分）：继续使用上一阶段的血条中剩下的1/4符卡血量；
+spell_full.符卡（全部）：更新一条新的血条，全部是该符卡的血量；
+spell_time：符卡（时符）：更新一条新的血条，全部是该符卡的血量。但因为是时符血量并不会扣除。</t>
+    </r>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -147,13 +193,25 @@
     <t>bonus_reduction_rate</t>
   </si>
   <si>
+    <t>lives</t>
+  </si>
+  <si>
+    <t>hp_hud</t>
+  </si>
+  <si>
     <t>bprc_keine_ns1</t>
   </si>
   <si>
     <t>keine</t>
   </si>
   <si>
+    <t>nons</t>
+  </si>
+  <si>
     <t>bprc_keine_sc1</t>
+  </si>
+  <si>
+    <t>spell_quarter</t>
   </si>
   <si>
     <t>bprc_keine_ns2</t>
@@ -172,7 +230,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,6 +399,13 @@
     <font>
       <sz val="10"/>
       <color theme="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1162,12 +1227,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomLeft" activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
@@ -1184,10 +1249,12 @@
     <col min="13" max="13" width="7.75454545454545" style="2" customWidth="1"/>
     <col min="14" max="14" width="17.2545454545455" style="2" customWidth="1"/>
     <col min="15" max="15" width="25.1272727272727" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="16" max="16" width="27.1272727272727" style="2" customWidth="1"/>
+    <col min="17" max="17" width="33.8181818181818" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:15">
+    <row r="1" s="1" customFormat="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1233,8 +1300,14 @@
       <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="42" spans="1:15">
+    <row r="2" s="1" customFormat="1" ht="177" spans="1:17">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1280,60 +1353,72 @@
       <c r="O2" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="P2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:15">
+    <row r="3" s="1" customFormat="1" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -1362,13 +1447,19 @@
       <c r="M4" s="2">
         <v>60</v>
       </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
@@ -1407,13 +1498,19 @@
       <c r="O5" s="2">
         <v>200</v>
       </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2">
         <v>3</v>
@@ -1442,13 +1539,19 @@
       <c r="M6" s="2">
         <v>60</v>
       </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2">
         <v>4</v>
@@ -1486,6 +1589,12 @@
       </c>
       <c r="O7" s="2">
         <v>200</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/settings/data/BossProcess.xlsx
+++ b/settings/data/BossProcess.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DDEA40-B091-4D68-8734-81ADA559C4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="11630"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="keine" sheetId="1" r:id="rId1"/>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>string</t>
   </si>
@@ -219,18 +225,16 @@
   <si>
     <t>bprc_keine_sc2</t>
   </si>
+  <si>
+    <t>spell_quarter</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,150 +257,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="9"/>
       <name val="宋体"/>
@@ -410,202 +270,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -628,255 +316,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -892,69 +338,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TID"/>
@@ -1221,40 +626,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="Q19" sqref="Q19"/>
+      <selection pane="bottomLeft" activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7545454545455" style="2" customWidth="1"/>
-    <col min="2" max="3" width="12.6272727272727" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.2545454545455" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.2545454545455" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.6272727272727" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.8727272727273" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.75454545454545" style="2" customWidth="1"/>
-    <col min="9" max="9" width="27.1272727272727" style="2" customWidth="1"/>
-    <col min="10" max="12" width="18.8727272727273" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7.75454545454545" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.2545454545455" style="2" customWidth="1"/>
-    <col min="15" max="15" width="25.1272727272727" style="2" customWidth="1"/>
-    <col min="16" max="16" width="27.1272727272727" style="2" customWidth="1"/>
-    <col min="17" max="17" width="33.8181818181818" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="12.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="27.109375" style="2" customWidth="1"/>
+    <col min="10" max="12" width="18.88671875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7.77734375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.21875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="25.109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="27.109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="33.77734375" style="2" customWidth="1"/>
     <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:17">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1307,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="177" spans="1:17">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="176.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1360,7 +764,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:17">
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1413,7 +817,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
@@ -1454,7 +858,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -1501,11 +905,11 @@
       <c r="P5" s="2">
         <v>1</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>42</v>
+      <c r="Q5" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>43</v>
       </c>
@@ -1546,7 +950,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>44</v>
       </c>
@@ -1598,8 +1002,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/BossProcess.xlsx
+++ b/settings/data/BossProcess.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DDEA40-B091-4D68-8734-81ADA559C4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24750" windowHeight="11630"/>
   </bookViews>
   <sheets>
     <sheet name="keine" sheetId="1" r:id="rId1"/>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>string</t>
   </si>
@@ -62,6 +56,12 @@
     <t>阶段序数</t>
   </si>
   <si>
+    <t>是否为对话</t>
+  </si>
+  <si>
+    <t>对话ID</t>
+  </si>
+  <si>
     <t>是否为符卡</t>
   </si>
   <si>
@@ -78,6 +78,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">速度
 </t>
     </r>
@@ -109,6 +116,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">残机数
 </t>
     </r>
@@ -125,6 +139,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">血条
 </t>
     </r>
@@ -166,6 +187,12 @@
     <t>phase_number</t>
   </si>
   <si>
+    <t>is_dialog</t>
+  </si>
+  <si>
+    <t>dialog_id</t>
+  </si>
+  <si>
     <t>is_sc</t>
   </si>
   <si>
@@ -205,12 +232,18 @@
     <t>hp_hud</t>
   </si>
   <si>
+    <t>bprc_kenie_di1</t>
+  </si>
+  <si>
+    <t>keine</t>
+  </si>
+  <si>
+    <t>dialog_s1b</t>
+  </si>
+  <si>
     <t>bprc_keine_ns1</t>
   </si>
   <si>
-    <t>keine</t>
-  </si>
-  <si>
     <t>nons</t>
   </si>
   <si>
@@ -226,15 +259,23 @@
     <t>bprc_keine_sc2</t>
   </si>
   <si>
-    <t>spell_quarter</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>bprc_kenie_di2</t>
+  </si>
+  <si>
+    <t>dialog_s1a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +298,150 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="9"/>
       <name val="宋体"/>
@@ -270,30 +455,202 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -316,9 +673,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -338,28 +937,72 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TID"/>
@@ -626,39 +1269,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q5" sqref="Q5"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="12.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.77734375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="27.109375" style="2" customWidth="1"/>
-    <col min="10" max="12" width="18.88671875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7.77734375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.21875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="25.109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="27.109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="33.77734375" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="17.7818181818182" style="2" customWidth="1"/>
+    <col min="2" max="3" width="12.6636363636364" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.2181818181818" style="2" customWidth="1"/>
+    <col min="5" max="7" width="17.2181818181818" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.6636363636364" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.8909090909091" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.78181818181818" style="2" customWidth="1"/>
+    <col min="11" max="11" width="27.1090909090909" style="2" customWidth="1"/>
+    <col min="12" max="14" width="18.8909090909091" style="2" customWidth="1"/>
+    <col min="15" max="15" width="7.78181818181818" style="2" customWidth="1"/>
+    <col min="16" max="16" width="17.2181818181818" style="2" customWidth="1"/>
+    <col min="17" max="17" width="25.1090909090909" style="2" customWidth="1"/>
+    <col min="18" max="18" width="27.1090909090909" style="2" customWidth="1"/>
+    <col min="19" max="19" width="33.7818181818182" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,7 +1325,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
@@ -690,7 +1334,7 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
@@ -705,13 +1349,19 @@
         <v>3</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="176.4" x14ac:dyDescent="0.25">
+    <row r="2" s="1" customFormat="1" ht="177" spans="1:19">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -730,22 +1380,22 @@
       <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="3" t="s">
@@ -757,253 +1407,311 @@
       <c r="O2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="R2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="1" customFormat="1" spans="1:19">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>38</v>
+    <row r="4" s="1" customFormat="1" spans="1:19">
+      <c r="A4" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="2">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="E4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
         <v>12000</v>
       </c>
-      <c r="I4" s="2" t="b">
+      <c r="K5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J4" s="2">
+      <c r="L5" s="2">
         <v>100</v>
       </c>
-      <c r="K4" s="2">
+      <c r="M5" s="2">
         <v>50</v>
       </c>
-      <c r="L4" s="2">
+      <c r="N5" s="2">
         <v>50</v>
       </c>
-      <c r="M4" s="2">
+      <c r="O5" s="2">
         <v>60</v>
       </c>
-      <c r="P4" s="2">
+      <c r="R5" s="2">
         <v>1</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>40</v>
+      <c r="S5" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="b">
+    <row r="6" spans="1:19">
+      <c r="A6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="H6" s="2" t="str">
         <f>[1]TID!$A$12</f>
         <v>esc_keine_1</v>
       </c>
-      <c r="G5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="I6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
         <v>12000</v>
       </c>
-      <c r="I5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
+      <c r="K6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
         <v>50</v>
       </c>
-      <c r="L5" s="2">
+      <c r="N6" s="2">
         <v>50</v>
       </c>
-      <c r="M5" s="2">
+      <c r="O6" s="2">
         <v>60</v>
       </c>
-      <c r="N5" s="2">
+      <c r="P6" s="2">
         <v>15000</v>
       </c>
-      <c r="O5" s="2">
+      <c r="Q6" s="2">
         <v>200</v>
       </c>
-      <c r="P5" s="2">
+      <c r="R6" s="2">
         <v>1</v>
       </c>
-      <c r="Q5" s="5" t="s">
-        <v>45</v>
+      <c r="S6" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:19">
+      <c r="A7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
         <v>12000</v>
       </c>
-      <c r="I6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="K7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
         <v>100</v>
       </c>
-      <c r="L6" s="2">
+      <c r="N7" s="2">
         <v>50</v>
       </c>
-      <c r="M6" s="2">
+      <c r="O7" s="2">
         <v>60</v>
       </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>40</v>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="2">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2" t="b">
+    <row r="8" spans="1:19">
+      <c r="A8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="H8" s="2" t="str">
         <f>[1]TID!$A$13</f>
         <v>esc_keine_2</v>
       </c>
-      <c r="G7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="I8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
         <v>12000</v>
       </c>
-      <c r="I7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="K8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
         <v>50</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N8" s="2">
         <v>50</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O8" s="2">
         <v>60</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P8" s="2">
         <v>15000</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q8" s="2">
         <v>200</v>
       </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>42</v>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/BossProcess.xlsx
+++ b/settings/data/BossProcess.xlsx
@@ -44,7 +44,7 @@
     <t>float</t>
   </si>
   <si>
-    <t>阶段ID</t>
+    <t>事件ID</t>
   </si>
   <si>
     <t>注释</t>
@@ -53,7 +53,7 @@
     <t>所属BOSS</t>
   </si>
   <si>
-    <t>阶段序数</t>
+    <t>事件序数</t>
   </si>
   <si>
     <t>是否为对话</t>
@@ -1280,7 +1280,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
